--- a/Projects 2021/Saifee Hospital Cardiac wing/VO/01- variation order for Core Work.xlsx
+++ b/Projects 2021/Saifee Hospital Cardiac wing/VO/01- variation order for Core Work.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3327E1C-7FF1-49E8-AFC0-5F7C509D7C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D55A5CF-19E7-4F53-BB35-9B06A80E5EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$43</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>S. #</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Variation Order No 1</t>
   </si>
   <si>
-    <t>Job</t>
-  </si>
-  <si>
     <t>M/S Mughals Constructors (Pvt.) Ltd</t>
   </si>
   <si>
@@ -68,10 +65,10 @@
     <t xml:space="preserve">Variation order for Core Work </t>
   </si>
   <si>
-    <t>Core Cutting &amp; chiseling work at Various floors.</t>
-  </si>
-  <si>
-    <t>Note: Supplier Quotation attached.</t>
+    <t>Nos</t>
+  </si>
+  <si>
+    <t>Core Cutting &amp; chiseling work (1st &amp; 2nd Floor)</t>
   </si>
 </sst>
 </file>
@@ -79,10 +76,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,14 +155,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -229,28 +218,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -260,16 +249,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -279,29 +268,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -310,10 +299,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -328,9 +313,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -354,16 +336,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1574800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>498475</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -393,7 +375,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1955800" y="0"/>
+          <a:off x="11185525" y="295275"/>
           <a:ext cx="2314575" cy="1123950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -415,15 +397,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>229870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>596265</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>329565</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>47575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -454,8 +436,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="222250" y="9357995"/>
-          <a:ext cx="755015" cy="611455"/>
+          <a:off x="10633075" y="7421245"/>
+          <a:ext cx="755015" cy="608280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -764,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:N45"/>
+  <dimension ref="A7:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,32 +781,32 @@
     <row r="17" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="32"/>
+      <c r="A19" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="30"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="9">
-        <v>45245</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="32"/>
+      <c r="A20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="30"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="30"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
@@ -850,26 +832,26 @@
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
+      <c r="A26" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:12" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
@@ -882,16 +864,16 @@
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
+      <c r="A29" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -931,17 +913,17 @@
         <v>0</v>
       </c>
       <c r="D32" s="12">
-        <v>80000</v>
+        <v>1600</v>
       </c>
       <c r="E32" s="13">
         <f>(C32+D32)*25%</f>
-        <v>20000</v>
+        <v>400</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G32" s="11">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H32" s="12">
         <f>SUM(C32+D32+E32)*G32</f>
@@ -949,15 +931,15 @@
       </c>
     </row>
     <row r="33" spans="1:14" s="23" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
       <c r="H33" s="22">
         <f>SUM(H32:H32)</f>
         <v>100000</v>
@@ -971,31 +953,33 @@
     <row r="35" spans="1:14" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:14" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:14" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-    </row>
-    <row r="39" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+    <row r="38" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19"/>
+    </row>
+    <row r="40" spans="1:14" s="6" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="19"/>
-    </row>
-    <row r="41" spans="1:14" s="6" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
@@ -1004,25 +988,14 @@
       <c r="H41" s="19"/>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="J42" s="15"/>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J45" s="8"/>
+      <c r="J44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1035,7 +1008,7 @@
   <pageMargins left="0" right="0" top="0" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="46" max="6" man="1"/>
+    <brk id="45" max="6" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
